--- a/Project documents/elaboration-phase/20161013_strokendiagram.xlsx
+++ b/Project documents/elaboration-phase/20161013_strokendiagram.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Customer_ID</t>
   </si>
@@ -79,13 +79,58 @@
   </si>
   <si>
     <t>tbl_invoices</t>
+  </si>
+  <si>
+    <t>Invoice_ID</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>tbl_quotations</t>
+  </si>
+  <si>
+    <t>Quotations_ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Offer status</t>
+  </si>
+  <si>
+    <t>Order type</t>
+  </si>
+  <si>
+    <t>tbl_appointments</t>
+  </si>
+  <si>
+    <t>Appointment_ID</t>
+  </si>
+  <si>
+    <t>Last contact</t>
+  </si>
+  <si>
+    <t>Next action</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +147,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,7 +178,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,31 +236,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -218,6 +308,845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Rechte verbindingslijn 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1319893" y="1156607"/>
+          <a:ext cx="0" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Rechte verbindingslijn 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1333500" y="1605643"/>
+          <a:ext cx="1415143" cy="13608"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Rechte verbindingslijn 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2721429" y="1619251"/>
+          <a:ext cx="0" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Rechte verbindingslijn 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1374321" y="2857500"/>
+          <a:ext cx="0" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Rechte verbindingslijn 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1387929" y="3252107"/>
+          <a:ext cx="19294928" cy="54429"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Rechte verbindingslijn 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2694214" y="3306536"/>
+          <a:ext cx="1" cy="680357"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>557893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Rechte verbindingslijn 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13079186" y="3254830"/>
+          <a:ext cx="10886" cy="718456"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>615044</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Rechte verbindingslijn 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="20669250" y="3224893"/>
+          <a:ext cx="2723" cy="764722"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>625930</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>544287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Rechte verbindingslijn met pijl 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1306287" y="1115787"/>
+          <a:ext cx="27213" cy="489856"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Rechte verbindingslijn met pijl 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2721430" y="1605643"/>
+          <a:ext cx="13606" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>421821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Rechte verbindingslijn met pijl 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2721429" y="1741714"/>
+          <a:ext cx="0" cy="394607"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>544286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Rechte verbindingslijn met pijl 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1374321" y="2816679"/>
+          <a:ext cx="0" cy="489858"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>557893</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Rechte verbindingslijn met pijl 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2694214" y="3320143"/>
+          <a:ext cx="1" cy="653143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>653144</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>394607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Rechte verbindingslijn met pijl 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2694214" y="3306536"/>
+          <a:ext cx="1" cy="503464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>424543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Rechte verbindingslijn met pijl 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13079185" y="3336472"/>
+          <a:ext cx="1" cy="503464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>155121</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>155122</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Rechte verbindingslijn met pijl 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13081907" y="3502479"/>
+          <a:ext cx="1" cy="503464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>617764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>617765</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>440871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Rechte verbindingslijn met pijl 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20674693" y="3352800"/>
+          <a:ext cx="1" cy="503464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>606878</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>606879</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>566057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Rechte verbindingslijn met pijl 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20663807" y="3477986"/>
+          <a:ext cx="1" cy="503464"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,132 +1446,549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA12"/>
+  <dimension ref="B1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="10" width="9" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="12.625" customWidth="1"/>
+    <col min="28" max="28" width="10.625" customWidth="1"/>
+    <col min="29" max="29" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3" t="s">
+      <c r="W2" s="11"/>
+      <c r="X2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="3"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="16"/>
+    </row>
+    <row r="6" spans="2:35" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+    </row>
+    <row r="11" spans="2:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="14"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+    <row r="12" spans="2:35" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI12" s="11"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
+  <mergeCells count="47">
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="L7:AI7"/>
+    <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="D6:AI6"/>
+    <mergeCell ref="B3:AI5"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="B8:AI10"/>
+    <mergeCell ref="D11:P11"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="Z2:AA2"/>
@@ -659,14 +2005,14 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>